--- a/data_year/zb/文化/艺术表演场馆基本情况/艺术表演场馆艺术演出场次观众人次.xlsx
+++ b/data_year/zb/文化/艺术表演场馆基本情况/艺术表演场馆艺术演出场次观众人次.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,750 +528,693 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="C2" t="n">
-        <v>234</v>
+        <v>842</v>
       </c>
       <c r="D2" t="n">
-        <v>1140</v>
+        <v>2353</v>
       </c>
       <c r="E2" t="n">
-        <v>12177</v>
+        <v>23056</v>
       </c>
       <c r="F2" t="n">
-        <v>22289</v>
+        <v>24893</v>
       </c>
       <c r="G2" t="n">
-        <v>20951</v>
+        <v>24152</v>
       </c>
       <c r="H2" t="n">
-        <v>37170</v>
+        <v>37162</v>
       </c>
       <c r="I2" t="n">
-        <v>11221</v>
+        <v>13549</v>
       </c>
       <c r="J2" t="n">
-        <v>10257</v>
+        <v>12638</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>32111</v>
+        <v>31653</v>
       </c>
       <c r="N2" t="n">
-        <v>1526</v>
+        <v>1979</v>
       </c>
       <c r="O2" t="n">
-        <v>11876</v>
+        <v>16718</v>
       </c>
       <c r="P2" t="n">
-        <v>7209</v>
+        <v>9317</v>
       </c>
       <c r="Q2" t="n">
-        <v>44288</v>
+        <v>54709</v>
       </c>
       <c r="R2" t="n">
-        <v>1372</v>
+        <v>1443</v>
       </c>
       <c r="S2" t="n">
-        <v>1633</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>303</v>
+        <v>411.28</v>
       </c>
       <c r="C3" t="n">
-        <v>783</v>
+        <v>599.26</v>
       </c>
       <c r="D3" t="n">
-        <v>3237</v>
+        <v>2126.28</v>
       </c>
       <c r="E3" t="n">
-        <v>21625</v>
+        <v>20708.75</v>
       </c>
       <c r="F3" t="n">
-        <v>24376</v>
+        <v>25872.51</v>
       </c>
       <c r="G3" t="n">
-        <v>26197</v>
+        <v>20910.77</v>
       </c>
       <c r="H3" t="n">
-        <v>35917</v>
+        <v>31190.49</v>
       </c>
       <c r="I3" t="n">
-        <v>12635</v>
+        <v>10281.97</v>
       </c>
       <c r="J3" t="n">
-        <v>14949</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>9805.83</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21320.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>26246</v>
+      </c>
       <c r="M3" t="n">
-        <v>32067</v>
+        <v>26857.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1827</v>
+        <v>794.53</v>
       </c>
       <c r="O3" t="n">
-        <v>14557</v>
+        <v>15962.48</v>
       </c>
       <c r="P3" t="n">
-        <v>6542</v>
+        <v>6029.39</v>
       </c>
       <c r="Q3" t="n">
-        <v>53692</v>
+        <v>47566.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2121</v>
+        <v>699.79</v>
       </c>
       <c r="S3" t="n">
-        <v>1978</v>
+        <v>2338.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290</v>
+        <v>373.07</v>
       </c>
       <c r="C4" t="n">
-        <v>842</v>
+        <v>907.45</v>
       </c>
       <c r="D4" t="n">
-        <v>2353</v>
+        <v>3020.14</v>
       </c>
       <c r="E4" t="n">
-        <v>23056</v>
+        <v>39270.72</v>
       </c>
       <c r="F4" t="n">
-        <v>24893</v>
+        <v>37917.39</v>
       </c>
       <c r="G4" t="n">
-        <v>24152</v>
+        <v>35868.05</v>
       </c>
       <c r="H4" t="n">
-        <v>37162</v>
+        <v>27850.06</v>
       </c>
       <c r="I4" t="n">
-        <v>13549</v>
+        <v>15996.57</v>
       </c>
       <c r="J4" t="n">
-        <v>12638</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>7523.83</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16295.78</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44891.58</v>
+      </c>
       <c r="M4" t="n">
-        <v>31653</v>
+        <v>21916.64</v>
       </c>
       <c r="N4" t="n">
-        <v>1979</v>
+        <v>657.01</v>
       </c>
       <c r="O4" t="n">
-        <v>16718</v>
+        <v>8949.67</v>
       </c>
       <c r="P4" t="n">
-        <v>9317</v>
+        <v>9418.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>54709</v>
+        <v>61187.36</v>
       </c>
       <c r="R4" t="n">
-        <v>1443</v>
+        <v>285.89</v>
       </c>
       <c r="S4" t="n">
-        <v>2687</v>
+        <v>1742.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>411.28</v>
+        <v>431</v>
       </c>
       <c r="C5" t="n">
-        <v>599.26</v>
+        <v>127.6</v>
       </c>
       <c r="D5" t="n">
-        <v>2126.28</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20708.75</v>
-      </c>
+        <v>257.29</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>25872.51</v>
+        <v>13954.23</v>
       </c>
       <c r="G5" t="n">
-        <v>20910.77</v>
+        <v>10091.42</v>
       </c>
       <c r="H5" t="n">
-        <v>31190.49</v>
+        <v>22544.07</v>
       </c>
       <c r="I5" t="n">
-        <v>10281.97</v>
+        <v>8594.639999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>9805.83</v>
+        <v>6722.68</v>
       </c>
       <c r="K5" t="n">
-        <v>21320.5</v>
+        <v>15790</v>
       </c>
       <c r="L5" t="n">
-        <v>26246</v>
-      </c>
-      <c r="M5" t="n">
-        <v>26857.75</v>
-      </c>
+        <v>10830</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>794.53</v>
+        <v>85</v>
       </c>
       <c r="O5" t="n">
-        <v>15962.48</v>
+        <v>7507.41</v>
       </c>
       <c r="P5" t="n">
-        <v>6029.39</v>
+        <v>4099.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>47566.5</v>
+        <v>26624.45</v>
       </c>
       <c r="R5" t="n">
-        <v>699.79</v>
+        <v>316.6</v>
       </c>
       <c r="S5" t="n">
-        <v>2338.69</v>
+        <v>1378.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373.07</v>
+        <v>542.08</v>
       </c>
       <c r="C6" t="n">
-        <v>907.45</v>
+        <v>153.64</v>
       </c>
       <c r="D6" t="n">
-        <v>3020.14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>39270.72</v>
-      </c>
+        <v>283.86</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>37917.39</v>
+        <v>14199.72</v>
       </c>
       <c r="G6" t="n">
-        <v>35868.05</v>
+        <v>9220.82</v>
       </c>
       <c r="H6" t="n">
-        <v>27850.06</v>
+        <v>22164.45</v>
       </c>
       <c r="I6" t="n">
-        <v>15996.57</v>
+        <v>8926.84</v>
       </c>
       <c r="J6" t="n">
-        <v>7523.83</v>
+        <v>5827.69</v>
       </c>
       <c r="K6" t="n">
-        <v>16295.78</v>
+        <v>14981.37</v>
       </c>
       <c r="L6" t="n">
-        <v>44891.58</v>
-      </c>
-      <c r="M6" t="n">
-        <v>21916.64</v>
-      </c>
+        <v>11001.3</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>657.01</v>
+        <v>87.5</v>
       </c>
       <c r="O6" t="n">
-        <v>8949.67</v>
+        <v>7292.95</v>
       </c>
       <c r="P6" t="n">
-        <v>9418.65</v>
+        <v>4209.07</v>
       </c>
       <c r="Q6" t="n">
-        <v>61187.36</v>
+        <v>25982.67</v>
       </c>
       <c r="R6" t="n">
-        <v>285.89</v>
+        <v>269.39</v>
       </c>
       <c r="S6" t="n">
-        <v>1742.88</v>
+        <v>1221.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431</v>
+        <v>267.58</v>
       </c>
       <c r="C7" t="n">
-        <v>127.6</v>
+        <v>143.6</v>
       </c>
       <c r="D7" t="n">
-        <v>257.29</v>
+        <v>290.44</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>13954.23</v>
+        <v>15616.48</v>
       </c>
       <c r="G7" t="n">
-        <v>10091.42</v>
+        <v>10369.35</v>
       </c>
       <c r="H7" t="n">
-        <v>22544.07</v>
+        <v>24793.07</v>
       </c>
       <c r="I7" t="n">
-        <v>8594.639999999999</v>
+        <v>9464.27</v>
       </c>
       <c r="J7" t="n">
-        <v>6722.68</v>
+        <v>6471.71</v>
       </c>
       <c r="K7" t="n">
-        <v>15790</v>
+        <v>17817.42</v>
       </c>
       <c r="L7" t="n">
-        <v>10830</v>
+        <v>10718.87</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>85</v>
+        <v>98.5</v>
       </c>
       <c r="O7" t="n">
-        <v>7507.41</v>
+        <v>8435.110000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>4099.04</v>
+        <v>4311.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>26624.45</v>
+        <v>28536.29</v>
       </c>
       <c r="R7" t="n">
-        <v>316.6</v>
+        <v>475.44</v>
       </c>
       <c r="S7" t="n">
-        <v>1378.64</v>
+        <v>1604.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>542.08</v>
+        <v>414.48</v>
       </c>
       <c r="C8" t="n">
-        <v>153.64</v>
+        <v>128.88</v>
       </c>
       <c r="D8" t="n">
-        <v>283.86</v>
+        <v>949.52</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>14199.72</v>
+        <v>15925.47</v>
       </c>
       <c r="G8" t="n">
-        <v>9220.82</v>
+        <v>11681.29</v>
       </c>
       <c r="H8" t="n">
-        <v>22164.45</v>
+        <v>26222.45</v>
       </c>
       <c r="I8" t="n">
-        <v>8926.84</v>
+        <v>10343.63</v>
       </c>
       <c r="J8" t="n">
-        <v>5827.69</v>
+        <v>6568.6</v>
       </c>
       <c r="K8" t="n">
-        <v>14981.37</v>
+        <v>18196.63</v>
       </c>
       <c r="L8" t="n">
-        <v>11001.3</v>
+        <v>12783.89</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>87.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>7292.95</v>
+        <v>8541.120000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>4209.07</v>
+        <v>5299.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>25982.67</v>
+        <v>30980.52</v>
       </c>
       <c r="R8" t="n">
-        <v>269.39</v>
+        <v>310.13</v>
       </c>
       <c r="S8" t="n">
-        <v>1221.2</v>
+        <v>2010.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267.58</v>
+        <v>672.95</v>
       </c>
       <c r="C9" t="n">
-        <v>143.6</v>
+        <v>100.82</v>
       </c>
       <c r="D9" t="n">
-        <v>290.44</v>
+        <v>883.96</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>15616.48</v>
+        <v>16422.71</v>
       </c>
       <c r="G9" t="n">
-        <v>10369.35</v>
+        <v>12028.69</v>
       </c>
       <c r="H9" t="n">
-        <v>24793.07</v>
+        <v>26640.08</v>
       </c>
       <c r="I9" t="n">
-        <v>9464.27</v>
+        <v>10861.73</v>
       </c>
       <c r="J9" t="n">
-        <v>6471.71</v>
+        <v>6921.18</v>
       </c>
       <c r="K9" t="n">
-        <v>17817.42</v>
+        <v>18830.23</v>
       </c>
       <c r="L9" t="n">
-        <v>10718.87</v>
+        <v>13511.97</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>98.5</v>
+        <v>95.5</v>
       </c>
       <c r="O9" t="n">
-        <v>8435.110000000001</v>
+        <v>8778.83</v>
       </c>
       <c r="P9" t="n">
-        <v>4311.26</v>
+        <v>5335.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>28536.29</v>
+        <v>32342.2</v>
       </c>
       <c r="R9" t="n">
-        <v>475.44</v>
+        <v>234.93</v>
       </c>
       <c r="S9" t="n">
-        <v>1604.33</v>
+        <v>2582.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>414.48</v>
+        <v>820</v>
       </c>
       <c r="C10" t="n">
-        <v>128.88</v>
+        <v>630</v>
       </c>
       <c r="D10" t="n">
-        <v>949.52</v>
+        <v>3340</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>15925.47</v>
+        <v>32410</v>
       </c>
       <c r="G10" t="n">
-        <v>11681.29</v>
+        <v>40960</v>
       </c>
       <c r="H10" t="n">
-        <v>26222.45</v>
+        <v>24820</v>
       </c>
       <c r="I10" t="n">
-        <v>10343.63</v>
+        <v>8560</v>
       </c>
       <c r="J10" t="n">
-        <v>6568.6</v>
+        <v>8100</v>
       </c>
       <c r="K10" t="n">
-        <v>18196.63</v>
+        <v>18420</v>
       </c>
       <c r="L10" t="n">
-        <v>12783.89</v>
+        <v>40200</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>98.59999999999999</v>
+        <v>2130</v>
       </c>
       <c r="O10" t="n">
-        <v>8541.120000000001</v>
+        <v>8280</v>
       </c>
       <c r="P10" t="n">
-        <v>5299.05</v>
+        <v>9510</v>
       </c>
       <c r="Q10" t="n">
-        <v>30980.52</v>
+        <v>58620</v>
       </c>
       <c r="R10" t="n">
-        <v>310.13</v>
+        <v>280</v>
       </c>
       <c r="S10" t="n">
-        <v>2010.4</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>672.95</v>
+        <v>780</v>
       </c>
       <c r="C11" t="n">
-        <v>100.82</v>
+        <v>890</v>
       </c>
       <c r="D11" t="n">
-        <v>883.96</v>
+        <v>6200</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>16422.71</v>
+        <v>32010</v>
       </c>
       <c r="G11" t="n">
-        <v>12028.69</v>
+        <v>49420</v>
       </c>
       <c r="H11" t="n">
-        <v>26640.08</v>
+        <v>24690</v>
       </c>
       <c r="I11" t="n">
-        <v>10861.73</v>
+        <v>9140</v>
       </c>
       <c r="J11" t="n">
-        <v>6921.18</v>
+        <v>11750</v>
       </c>
       <c r="K11" t="n">
-        <v>18830.23</v>
+        <v>17435.76</v>
       </c>
       <c r="L11" t="n">
-        <v>13511.97</v>
+        <v>50420</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>95.5</v>
+        <v>2120</v>
       </c>
       <c r="O11" t="n">
-        <v>8778.83</v>
+        <v>8520</v>
       </c>
       <c r="P11" t="n">
-        <v>5335.97</v>
+        <v>11610</v>
       </c>
       <c r="Q11" t="n">
-        <v>32342.2</v>
+        <v>67850</v>
       </c>
       <c r="R11" t="n">
-        <v>234.93</v>
+        <v>380</v>
       </c>
       <c r="S11" t="n">
-        <v>2582.07</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>820</v>
+        <v>198.3</v>
       </c>
       <c r="C12" t="n">
-        <v>630</v>
+        <v>320.4</v>
       </c>
       <c r="D12" t="n">
-        <v>3340</v>
+        <v>3260</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>32410</v>
+        <v>21805</v>
       </c>
       <c r="G12" t="n">
-        <v>40960</v>
+        <v>34175.3</v>
       </c>
       <c r="H12" t="n">
-        <v>24820</v>
+        <v>10005.9</v>
       </c>
       <c r="I12" t="n">
-        <v>8560</v>
+        <v>3348.2</v>
       </c>
       <c r="J12" t="n">
-        <v>8100</v>
+        <v>8053.7</v>
       </c>
       <c r="K12" t="n">
-        <v>18420</v>
+        <v>7177.9</v>
       </c>
       <c r="L12" t="n">
-        <v>40200</v>
+        <v>33592.1</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>2130</v>
+        <v>267.4</v>
       </c>
       <c r="O12" t="n">
-        <v>8280</v>
+        <v>3048.2</v>
       </c>
       <c r="P12" t="n">
-        <v>9510</v>
+        <v>5771.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>58620</v>
+        <v>40770</v>
       </c>
       <c r="R12" t="n">
-        <v>280</v>
+        <v>159.1</v>
       </c>
       <c r="S12" t="n">
-        <v>2490</v>
+        <v>1291.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780</v>
+        <v>340.3</v>
       </c>
       <c r="C13" t="n">
-        <v>890</v>
+        <v>706</v>
       </c>
       <c r="D13" t="n">
-        <v>6200</v>
+        <v>7625</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>32010</v>
+        <v>48264.8</v>
       </c>
       <c r="G13" t="n">
-        <v>49420</v>
+        <v>71726.5</v>
       </c>
       <c r="H13" t="n">
-        <v>24690</v>
+        <v>15782.6</v>
       </c>
       <c r="I13" t="n">
-        <v>9140</v>
+        <v>5453.2</v>
       </c>
       <c r="J13" t="n">
-        <v>11750</v>
+        <v>12165.4</v>
       </c>
       <c r="K13" t="n">
-        <v>17435.76</v>
+        <v>20665.4</v>
       </c>
       <c r="L13" t="n">
-        <v>50420</v>
+        <v>62841.9</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>2120</v>
+        <v>1305.1</v>
       </c>
       <c r="O13" t="n">
-        <v>8520</v>
+        <v>5987.3</v>
       </c>
       <c r="P13" t="n">
-        <v>11610</v>
+        <v>11003.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>67850</v>
+        <v>83507.3</v>
       </c>
       <c r="R13" t="n">
-        <v>380</v>
+        <v>135.9</v>
       </c>
       <c r="S13" t="n">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>320.4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3260</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>21805</v>
-      </c>
-      <c r="G14" t="n">
-        <v>34175.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10005.9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3348.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8053.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7177.9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>33592.1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>267.4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3048.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5771.9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>40770</v>
-      </c>
-      <c r="R14" t="n">
-        <v>159.1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1291.3</v>
+        <v>2437.7</v>
       </c>
     </row>
   </sheetData>
